--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc03.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc03.xlsx
@@ -247,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,7 +560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1697,11 +1699,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10">
@@ -1822,13 +1824,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1958,8 +1960,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>203</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>1</v>
       </c>
     </row>
@@ -2086,11 +2088,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2220,7 +2222,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2351,7 +2353,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2482,7 +2484,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2613,7 +2615,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2744,7 +2746,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2875,7 +2877,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3006,7 +3008,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3137,7 +3139,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3268,7 +3270,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3399,7 +3401,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3530,7 +3532,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3661,7 +3663,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3792,7 +3794,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3923,7 +3925,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4054,7 +4056,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4185,7 +4187,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4316,7 +4318,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4447,7 +4449,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4578,7 +4580,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4709,7 +4711,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4833,14 +4835,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4964,14 +4966,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5095,14 +5097,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5226,14 +5228,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5357,14 +5359,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5486,6 +5488,17 @@
       </c>
       <c r="AJ38" s="4">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
